--- a/documents/04プログラミング/音声/矢沢講師音声リスト.xlsx
+++ b/documents/04プログラミング/音声/矢沢講師音声リスト.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6C7FAA-80C6-4886-9FA8-0FCA99A52903}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0441C0-A95C-4230-9797-D2A0D25C60F0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>見つけた</t>
   </si>
@@ -563,7 +563,7 @@
   <dimension ref="D2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -759,7 +759,9 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
